--- a/usermods/usermod_v2_TTGO-TDisplay_output/resolution_calc.xlsx
+++ b/usermods/usermod_v2_TTGO-TDisplay_output/resolution_calc.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\00 - WLED, Addressable led\WLED_TTGO-TDisplay-output\source\usermods\usermod_v2_TTGO-TDisplay_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\00 - WLED - Addressable led\WLED_TTGO-TDisplay-output\source\usermods\usermod_v2_TTGO-TDisplay_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D7B56D-0512-4D0C-A15E-87050774A85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9467B5E3-5211-4FBC-A76B-255EF3E327B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{3A6FBE4B-9F2F-4551-8DC3-2012D57DE3BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A6FBE4B-9F2F-4551-8DC3-2012D57DE3BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T-Display S3" sheetId="2" r:id="rId1"/>
+    <sheet name="T-Display" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>L</t>
   </si>
@@ -65,12 +66,6 @@
     <t>Display height in pixels</t>
   </si>
   <si>
-    <t>with margin</t>
-  </si>
-  <si>
-    <t>without margin</t>
-  </si>
-  <si>
     <t>Vertical led count</t>
   </si>
   <si>
@@ -84,6 +79,27 @@
   </si>
   <si>
     <t>Max 6400 by memory</t>
+  </si>
+  <si>
+    <t>Pixels</t>
+  </si>
+  <si>
+    <t>Leds</t>
+  </si>
+  <si>
+    <t>Speed measurements</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>with gap</t>
+  </si>
+  <si>
+    <t>without gap</t>
   </si>
 </sst>
 </file>
@@ -140,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +184,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,11 +522,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4667404D-9575-403E-B998-3FD48748BCCB}">
+  <dimension ref="B2:X28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="4.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="2" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" customWidth="1"/>
+    <col min="22" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="52" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="O2" s="8">
+        <v>320</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>170</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C28" si="0">FLOOR(($O$2+1)/($B4+1),1)</f>
+        <v>160</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D28" si="1">FLOOR(($O$3+1)/($B4+1),1)</f>
+        <v>85</v>
+      </c>
+      <c r="E4" s="2">
+        <f>C4*D4</f>
+        <v>13600</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F28" si="2">FLOOR(($O$2+1-C4*(B4+1))/2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G28" si="3">FLOOR(($O$3+1-D4*(B4+1))/2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I28" si="4">FLOOR($O$2/$B4,1)</f>
+        <v>320</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J28" si="5">FLOOR($O$3/$B4,1)</f>
+        <v>170</v>
+      </c>
+      <c r="K4" s="2">
+        <f>I4*J4</f>
+        <v>54400</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L28" si="6">FLOOR(($O$2-I4*B4)/2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M28" si="7">FLOOR(($O$3-J4*B4)/2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E28" si="8">C5*D5</f>
+        <v>6099</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:K28" si="9">I5*J5</f>
+        <v>13600</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="8"/>
+        <v>3360</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="9"/>
+        <v>5936</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>107</v>
+      </c>
+      <c r="T6">
+        <v>57</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f>S6*T6</f>
+        <v>6099</v>
+      </c>
+      <c r="W6">
+        <f>S6*T6*U6*U6</f>
+        <v>24396</v>
+      </c>
+      <c r="X6" s="10">
+        <v>44134.78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="8"/>
+        <v>2176</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="9"/>
+        <v>3360</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>106</v>
+      </c>
+      <c r="T7">
+        <v>56</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <f>S7*T7</f>
+        <v>5936</v>
+      </c>
+      <c r="W7">
+        <f>S7*T7*U7*U7</f>
+        <v>53424</v>
+      </c>
+      <c r="X7" s="10">
+        <v>59544</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <f>FLOOR(($O$2+1)/($B8+1),1)</f>
+        <v>53</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="8"/>
+        <v>1484</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="9"/>
+        <v>2176</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>53</v>
+      </c>
+      <c r="T8">
+        <v>28</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <f>S8*T8</f>
+        <v>1484</v>
+      </c>
+      <c r="W8">
+        <f>S8*T8*U8*U8</f>
+        <v>37100</v>
+      </c>
+      <c r="X8" s="10">
+        <v>16724.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="8"/>
+        <v>1080</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="9"/>
+        <v>1484</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>53</v>
+      </c>
+      <c r="T9">
+        <v>28</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9:V11" si="10">S9*T9</f>
+        <v>1484</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9:W11" si="11">S9*T9*U9*U9</f>
+        <v>53424</v>
+      </c>
+      <c r="X9" s="10">
+        <v>20969</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="8"/>
+        <v>840</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="9"/>
+        <v>1080</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>14</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>21</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="11"/>
+        <v>43218</v>
+      </c>
+      <c r="X10" s="10">
+        <v>12786.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="8"/>
+        <v>665</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="9"/>
+        <v>840</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>14</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>22</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="11"/>
+        <v>47432</v>
+      </c>
+      <c r="X11" s="10">
+        <v>13930.66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="8"/>
+        <v>544</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="9"/>
+        <v>630</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="8"/>
+        <v>435</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="9"/>
+        <v>544</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="9"/>
+        <v>435</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="9"/>
+        <v>364</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="9"/>
+        <v>312</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="9"/>
+        <v>264</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="9"/>
+        <v>231</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="8"/>
+        <v>153</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="9"/>
+        <v>153</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="S4:X4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC95083-069F-445A-AE30-5857BF6547F4}">
   <dimension ref="B2:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,14 +1966,14 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -685,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -736,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -787,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -982,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -1030,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
